--- a/Jee_SSH相关/SSH.xlsx
+++ b/Jee_SSH相关/SSH.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="24030" windowHeight="13050"/>
+    <workbookView windowWidth="18468" windowHeight="9947"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,9 +16,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114">
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
       <t>第</t>
     </r>
     <r>
@@ -60,6 +66,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
       <t>第</t>
     </r>
     <r>
@@ -101,6 +113,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
       <t>第</t>
     </r>
     <r>
@@ -142,6 +160,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
       <t>第</t>
     </r>
     <r>
@@ -183,6 +207,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
       <t>第</t>
     </r>
     <r>
@@ -224,6 +254,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
       <t>第</t>
     </r>
     <r>
@@ -265,6 +301,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
       <t>第</t>
     </r>
     <r>
@@ -306,6 +348,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
       <t>第</t>
     </r>
     <r>
@@ -347,6 +395,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
       <t>第</t>
     </r>
     <r>
@@ -388,6 +442,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
       <t>第</t>
     </r>
     <r>
@@ -447,6 +507,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
       <t>第</t>
     </r>
     <r>
@@ -479,6 +545,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
       <t>第</t>
     </r>
     <r>
@@ -538,6 +610,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
       <t>Struts</t>
     </r>
     <r>
@@ -835,7 +913,103 @@
   </si>
   <si>
     <r>
-      <t xml:space="preserve">    Struts2</t>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">    </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>拦截器</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>(Interceptor)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>是</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>Struts2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>的核心组成部分，可以动态拦截</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>Action</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>调用的对象，类似于</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>Servlet</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>中的过滤器，</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>Struts2</t>
     </r>
     <r>
       <rPr>
@@ -880,7 +1054,25 @@
         <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
-      <t>，面向切面编程），是可插拨的，可任意组合</t>
+      <t>，面向切面编程）的一种实现策略，是可插拨的</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>可任意组合</t>
     </r>
     <r>
       <rPr>
@@ -953,7 +1145,25 @@
         <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
-      <t>将各个功能对应的拦截器分开定义，诶个拦截器完成单个功能，需要某个功能就加入对应的拦截器，将拦截器组合在一起就形成了拦截器栈</t>
+      <t>中将各个功能对应的拦截器分开定义，每个拦截器完成单个功能，需要某个功能就加入对应的拦截器，将拦截器组合在一起就形成了拦截器栈（</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>Interceptor Stack</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>）</t>
     </r>
     <r>
       <rPr>
@@ -971,7 +1181,7 @@
     </r>
     <r>
       <rPr>
-        <sz val="11"/>
+        <sz val="9"/>
         <color theme="1"/>
         <rFont val="Consolas"/>
         <charset val="134"/>
@@ -980,7 +1190,7 @@
     </r>
     <r>
       <rPr>
-        <sz val="11"/>
+        <sz val="9"/>
         <color theme="1"/>
         <rFont val="宋体"/>
         <charset val="134"/>
@@ -989,7 +1199,7 @@
     </r>
     <r>
       <rPr>
-        <sz val="11"/>
+        <sz val="9"/>
         <color theme="1"/>
         <rFont val="Consolas"/>
         <charset val="134"/>
@@ -998,7 +1208,7 @@
     </r>
     <r>
       <rPr>
-        <sz val="11"/>
+        <sz val="9"/>
         <color theme="1"/>
         <rFont val="宋体"/>
         <charset val="134"/>
@@ -1007,7 +1217,7 @@
     </r>
     <r>
       <rPr>
-        <sz val="11"/>
+        <sz val="9"/>
         <color theme="1"/>
         <rFont val="Consolas"/>
         <charset val="134"/>
@@ -1017,7 +1227,7 @@
     </r>
     <r>
       <rPr>
-        <sz val="11"/>
+        <sz val="9"/>
         <color theme="1"/>
         <rFont val="宋体"/>
         <charset val="134"/>
@@ -1026,7 +1236,7 @@
     </r>
     <r>
       <rPr>
-        <sz val="11"/>
+        <sz val="9"/>
         <color theme="1"/>
         <rFont val="Consolas"/>
         <charset val="134"/>
@@ -1035,7 +1245,7 @@
     </r>
     <r>
       <rPr>
-        <sz val="11"/>
+        <sz val="9"/>
         <color theme="1"/>
         <rFont val="宋体"/>
         <charset val="134"/>
@@ -1044,7 +1254,7 @@
     </r>
     <r>
       <rPr>
-        <sz val="11"/>
+        <sz val="9"/>
         <color theme="1"/>
         <rFont val="Consolas"/>
         <charset val="134"/>
@@ -1054,7 +1264,7 @@
     </r>
     <r>
       <rPr>
-        <sz val="11"/>
+        <sz val="9"/>
         <color theme="1"/>
         <rFont val="宋体"/>
         <charset val="134"/>
@@ -1063,7 +1273,7 @@
     </r>
     <r>
       <rPr>
-        <sz val="11"/>
+        <sz val="9"/>
         <color theme="1"/>
         <rFont val="Consolas"/>
         <charset val="134"/>
@@ -1072,7 +1282,7 @@
     </r>
     <r>
       <rPr>
-        <sz val="11"/>
+        <sz val="9"/>
         <color theme="1"/>
         <rFont val="宋体"/>
         <charset val="134"/>
@@ -1081,7 +1291,7 @@
     </r>
     <r>
       <rPr>
-        <sz val="11"/>
+        <sz val="9"/>
         <color theme="1"/>
         <rFont val="Consolas"/>
         <charset val="134"/>
@@ -1090,7 +1300,7 @@
     </r>
     <r>
       <rPr>
-        <sz val="11"/>
+        <sz val="9"/>
         <color theme="1"/>
         <rFont val="宋体"/>
         <charset val="134"/>
@@ -1099,7 +1309,7 @@
     </r>
     <r>
       <rPr>
-        <sz val="11"/>
+        <sz val="9"/>
         <color theme="1"/>
         <rFont val="Consolas"/>
         <charset val="134"/>
@@ -1108,7 +1318,7 @@
     </r>
     <r>
       <rPr>
-        <sz val="11"/>
+        <sz val="9"/>
         <color theme="1"/>
         <rFont val="宋体"/>
         <charset val="134"/>
@@ -1117,7 +1327,7 @@
     </r>
     <r>
       <rPr>
-        <sz val="11"/>
+        <sz val="9"/>
         <color theme="1"/>
         <rFont val="Consolas"/>
         <charset val="134"/>
@@ -1126,7 +1336,7 @@
     </r>
     <r>
       <rPr>
-        <sz val="11"/>
+        <sz val="9"/>
         <color theme="1"/>
         <rFont val="宋体"/>
         <charset val="134"/>
@@ -1135,7 +1345,7 @@
     </r>
     <r>
       <rPr>
-        <sz val="11"/>
+        <sz val="9"/>
         <color theme="1"/>
         <rFont val="Consolas"/>
         <charset val="134"/>
@@ -1144,7 +1354,7 @@
     </r>
     <r>
       <rPr>
-        <sz val="11"/>
+        <sz val="9"/>
         <color theme="1"/>
         <rFont val="宋体"/>
         <charset val="134"/>
@@ -1153,7 +1363,7 @@
     </r>
     <r>
       <rPr>
-        <sz val="11"/>
+        <sz val="9"/>
         <color theme="1"/>
         <rFont val="Consolas"/>
         <charset val="134"/>
@@ -1162,7 +1372,7 @@
     </r>
     <r>
       <rPr>
-        <sz val="11"/>
+        <sz val="9"/>
         <color theme="1"/>
         <rFont val="宋体"/>
         <charset val="134"/>
@@ -1171,7 +1381,7 @@
     </r>
     <r>
       <rPr>
-        <sz val="11"/>
+        <sz val="9"/>
         <color theme="1"/>
         <rFont val="Consolas"/>
         <charset val="134"/>
@@ -1180,7 +1390,7 @@
     </r>
     <r>
       <rPr>
-        <sz val="11"/>
+        <sz val="9"/>
         <color theme="1"/>
         <rFont val="宋体"/>
         <charset val="134"/>
@@ -1189,7 +1399,7 @@
     </r>
     <r>
       <rPr>
-        <sz val="11"/>
+        <sz val="9"/>
         <color theme="1"/>
         <rFont val="Consolas"/>
         <charset val="134"/>
@@ -1198,7 +1408,7 @@
     </r>
     <r>
       <rPr>
-        <sz val="11"/>
+        <sz val="9"/>
         <color theme="1"/>
         <rFont val="宋体"/>
         <charset val="134"/>
@@ -1207,7 +1417,7 @@
     </r>
     <r>
       <rPr>
-        <sz val="11"/>
+        <sz val="9"/>
         <color theme="1"/>
         <rFont val="Consolas"/>
         <charset val="134"/>
@@ -1218,7 +1428,7 @@
     <r>
       <rPr>
         <b/>
-        <sz val="11"/>
+        <sz val="9"/>
         <color rgb="FFFF0000"/>
         <rFont val="Consolas"/>
         <charset val="134"/>
@@ -1228,7 +1438,7 @@
     <r>
       <rPr>
         <b/>
-        <sz val="11"/>
+        <sz val="9"/>
         <color rgb="FFFF0000"/>
         <rFont val="宋体"/>
         <charset val="134"/>
@@ -1237,7 +1447,7 @@
     </r>
     <r>
       <rPr>
-        <sz val="11"/>
+        <sz val="9"/>
         <color theme="1"/>
         <rFont val="Consolas"/>
         <charset val="134"/>
@@ -1247,7 +1457,7 @@
     </r>
     <r>
       <rPr>
-        <sz val="11"/>
+        <sz val="9"/>
         <color rgb="FF0033CC"/>
         <rFont val="Consolas"/>
         <charset val="134"/>
@@ -1256,7 +1466,7 @@
     </r>
     <r>
       <rPr>
-        <sz val="11"/>
+        <sz val="9"/>
         <color rgb="FF0033CC"/>
         <rFont val="宋体"/>
         <charset val="134"/>
@@ -1265,7 +1475,7 @@
     </r>
     <r>
       <rPr>
-        <sz val="11"/>
+        <sz val="9"/>
         <color rgb="FF0033CC"/>
         <rFont val="Consolas"/>
         <charset val="134"/>
@@ -1275,7 +1485,7 @@
     </r>
     <r>
       <rPr>
-        <sz val="11"/>
+        <sz val="9"/>
         <color rgb="FF0033CC"/>
         <rFont val="宋体"/>
         <charset val="134"/>
@@ -1284,7 +1494,7 @@
     </r>
     <r>
       <rPr>
-        <sz val="11"/>
+        <sz val="9"/>
         <color theme="1"/>
         <rFont val="Consolas"/>
         <charset val="134"/>
@@ -1295,7 +1505,7 @@
     <r>
       <rPr>
         <b/>
-        <sz val="11"/>
+        <sz val="9"/>
         <color rgb="FFFF0000"/>
         <rFont val="Consolas"/>
         <charset val="134"/>
@@ -1305,7 +1515,7 @@
     <r>
       <rPr>
         <b/>
-        <sz val="11"/>
+        <sz val="9"/>
         <color rgb="FFFF0000"/>
         <rFont val="宋体"/>
         <charset val="134"/>
@@ -1314,7 +1524,7 @@
     </r>
     <r>
       <rPr>
-        <sz val="11"/>
+        <sz val="9"/>
         <color theme="1"/>
         <rFont val="Consolas"/>
         <charset val="134"/>
@@ -1324,7 +1534,7 @@
     </r>
     <r>
       <rPr>
-        <sz val="11"/>
+        <sz val="9"/>
         <color rgb="FF0033CC"/>
         <rFont val="Consolas"/>
         <charset val="134"/>
@@ -1333,7 +1543,7 @@
     </r>
     <r>
       <rPr>
-        <sz val="11"/>
+        <sz val="9"/>
         <color rgb="FF0033CC"/>
         <rFont val="宋体"/>
         <charset val="134"/>
@@ -1342,7 +1552,7 @@
     </r>
     <r>
       <rPr>
-        <sz val="11"/>
+        <sz val="9"/>
         <color rgb="FF0033CC"/>
         <rFont val="Consolas"/>
         <charset val="134"/>
@@ -1352,7 +1562,7 @@
     </r>
     <r>
       <rPr>
-        <sz val="11"/>
+        <sz val="9"/>
         <color rgb="FF0033CC"/>
         <rFont val="宋体"/>
         <charset val="134"/>
@@ -1361,7 +1571,7 @@
     </r>
     <r>
       <rPr>
-        <sz val="11"/>
+        <sz val="9"/>
         <color rgb="FF0033CC"/>
         <rFont val="Consolas"/>
         <charset val="134"/>
@@ -1371,7 +1581,7 @@
     </r>
     <r>
       <rPr>
-        <sz val="11"/>
+        <sz val="9"/>
         <color rgb="FF0033CC"/>
         <rFont val="宋体"/>
         <charset val="134"/>
@@ -1380,7 +1590,7 @@
     </r>
     <r>
       <rPr>
-        <sz val="11"/>
+        <sz val="9"/>
         <color rgb="FF0033CC"/>
         <rFont val="Consolas"/>
         <charset val="134"/>
@@ -1390,7 +1600,7 @@
     </r>
     <r>
       <rPr>
-        <sz val="11"/>
+        <sz val="9"/>
         <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
@@ -1398,7 +1608,7 @@
     </r>
     <r>
       <rPr>
-        <sz val="11"/>
+        <sz val="9"/>
         <rFont val="Consolas"/>
         <charset val="134"/>
       </rPr>
@@ -1406,7 +1616,7 @@
     </r>
     <r>
       <rPr>
-        <sz val="11"/>
+        <sz val="9"/>
         <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
@@ -1414,7 +1624,7 @@
     </r>
     <r>
       <rPr>
-        <sz val="11"/>
+        <sz val="9"/>
         <rFont val="Consolas"/>
         <charset val="134"/>
       </rPr>
@@ -1422,7 +1632,7 @@
     </r>
     <r>
       <rPr>
-        <sz val="11"/>
+        <sz val="9"/>
         <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
@@ -1430,7 +1640,7 @@
     </r>
     <r>
       <rPr>
-        <sz val="11"/>
+        <sz val="9"/>
         <rFont val="Consolas"/>
         <charset val="134"/>
       </rPr>
@@ -1522,7 +1732,43 @@
         <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
-      <t>是利用描述对象和数据库表之间映射的元数据，自动把</t>
+      <t>是利用描述</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>对象</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>和数据库</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>表</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>之间映射的元数据，自动把</t>
     </r>
     <r>
       <rPr>
@@ -1715,6 +1961,51 @@
       </rPr>
       <t>Criteria</t>
     </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF0033CC"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">[kraɪ'tɪərɪə] </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF0033CC"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>标准</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF0033CC"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF0033CC"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>准则</t>
+    </r>
   </si>
   <si>
     <r>
@@ -1722,7 +2013,7 @@
     </r>
     <r>
       <rPr>
-        <sz val="11"/>
+        <sz val="10"/>
         <color theme="1"/>
         <rFont val="Consolas"/>
         <charset val="134"/>
@@ -1732,7 +2023,7 @@
     </r>
     <r>
       <rPr>
-        <sz val="11"/>
+        <sz val="10"/>
         <color theme="1"/>
         <rFont val="宋体"/>
         <charset val="134"/>
@@ -1741,7 +2032,7 @@
     </r>
     <r>
       <rPr>
-        <sz val="11"/>
+        <sz val="10"/>
         <color theme="1"/>
         <rFont val="Consolas"/>
         <charset val="134"/>
@@ -1750,7 +2041,7 @@
     </r>
     <r>
       <rPr>
-        <sz val="11"/>
+        <sz val="10"/>
         <color theme="1"/>
         <rFont val="宋体"/>
         <charset val="134"/>
@@ -1759,7 +2050,7 @@
     </r>
     <r>
       <rPr>
-        <sz val="11"/>
+        <sz val="10"/>
         <color theme="1"/>
         <rFont val="Consolas"/>
         <charset val="134"/>
@@ -1768,7 +2059,7 @@
     </r>
     <r>
       <rPr>
-        <sz val="11"/>
+        <sz val="10"/>
         <color theme="1"/>
         <rFont val="宋体"/>
         <charset val="134"/>
@@ -1777,7 +2068,7 @@
     </r>
     <r>
       <rPr>
-        <sz val="11"/>
+        <sz val="10"/>
         <color theme="1"/>
         <rFont val="Consolas"/>
         <charset val="134"/>
@@ -1787,7 +2078,7 @@
     </r>
     <r>
       <rPr>
-        <sz val="11"/>
+        <sz val="10"/>
         <color theme="1"/>
         <rFont val="宋体"/>
         <charset val="134"/>
@@ -1796,7 +2087,7 @@
     </r>
     <r>
       <rPr>
-        <sz val="11"/>
+        <sz val="10"/>
         <color theme="1"/>
         <rFont val="Consolas"/>
         <charset val="134"/>
@@ -1805,7 +2096,7 @@
     </r>
     <r>
       <rPr>
-        <sz val="11"/>
+        <sz val="10"/>
         <color theme="1"/>
         <rFont val="宋体"/>
         <charset val="134"/>
@@ -1814,7 +2105,7 @@
     </r>
     <r>
       <rPr>
-        <sz val="11"/>
+        <sz val="10"/>
         <color theme="1"/>
         <rFont val="Consolas"/>
         <charset val="134"/>
@@ -1823,7 +2114,7 @@
     </r>
     <r>
       <rPr>
-        <sz val="11"/>
+        <sz val="10"/>
         <color theme="1"/>
         <rFont val="宋体"/>
         <charset val="134"/>
@@ -1832,7 +2123,7 @@
     </r>
     <r>
       <rPr>
-        <sz val="11"/>
+        <sz val="10"/>
         <color theme="1"/>
         <rFont val="Consolas"/>
         <charset val="134"/>
@@ -1841,7 +2132,7 @@
     </r>
     <r>
       <rPr>
-        <sz val="11"/>
+        <sz val="10"/>
         <color theme="1"/>
         <rFont val="宋体"/>
         <charset val="134"/>
@@ -1850,7 +2141,7 @@
     </r>
     <r>
       <rPr>
-        <sz val="11"/>
+        <sz val="10"/>
         <color theme="1"/>
         <rFont val="Consolas"/>
         <charset val="134"/>
@@ -1859,7 +2150,7 @@
     </r>
     <r>
       <rPr>
-        <sz val="11"/>
+        <sz val="10"/>
         <color theme="1"/>
         <rFont val="宋体"/>
         <charset val="134"/>
@@ -1868,7 +2159,7 @@
     </r>
     <r>
       <rPr>
-        <sz val="11"/>
+        <sz val="10"/>
         <color theme="1"/>
         <rFont val="Consolas"/>
         <charset val="134"/>
@@ -1877,7 +2168,7 @@
     </r>
     <r>
       <rPr>
-        <sz val="11"/>
+        <sz val="10"/>
         <color theme="1"/>
         <rFont val="宋体"/>
         <charset val="134"/>
@@ -1886,7 +2177,7 @@
     </r>
     <r>
       <rPr>
-        <sz val="11"/>
+        <sz val="10"/>
         <color theme="1"/>
         <rFont val="Consolas"/>
         <charset val="134"/>
@@ -1895,7 +2186,7 @@
     </r>
     <r>
       <rPr>
-        <sz val="11"/>
+        <sz val="10"/>
         <color theme="1"/>
         <rFont val="宋体"/>
         <charset val="134"/>
@@ -1904,7 +2195,7 @@
     </r>
     <r>
       <rPr>
-        <sz val="11"/>
+        <sz val="10"/>
         <color theme="1"/>
         <rFont val="Consolas"/>
         <charset val="134"/>
@@ -1914,7 +2205,7 @@
     </r>
     <r>
       <rPr>
-        <sz val="11"/>
+        <sz val="10"/>
         <color theme="1"/>
         <rFont val="宋体"/>
         <charset val="134"/>
@@ -1923,7 +2214,7 @@
     </r>
     <r>
       <rPr>
-        <sz val="11"/>
+        <sz val="10"/>
         <color theme="1"/>
         <rFont val="Consolas"/>
         <charset val="134"/>
@@ -1932,7 +2223,7 @@
     </r>
     <r>
       <rPr>
-        <sz val="11"/>
+        <sz val="10"/>
         <color theme="1"/>
         <rFont val="宋体"/>
         <charset val="134"/>
@@ -1941,7 +2232,7 @@
     </r>
     <r>
       <rPr>
-        <sz val="11"/>
+        <sz val="10"/>
         <color theme="1"/>
         <rFont val="Consolas"/>
         <charset val="134"/>
@@ -1950,7 +2241,7 @@
     </r>
     <r>
       <rPr>
-        <sz val="11"/>
+        <sz val="10"/>
         <color theme="1"/>
         <rFont val="宋体"/>
         <charset val="134"/>
@@ -1959,7 +2250,7 @@
     </r>
     <r>
       <rPr>
-        <sz val="11"/>
+        <sz val="10"/>
         <color theme="1"/>
         <rFont val="Consolas"/>
         <charset val="134"/>
@@ -1968,7 +2259,7 @@
     </r>
     <r>
       <rPr>
-        <sz val="11"/>
+        <sz val="10"/>
         <color theme="1"/>
         <rFont val="宋体"/>
         <charset val="134"/>
@@ -1977,7 +2268,7 @@
     </r>
     <r>
       <rPr>
-        <sz val="11"/>
+        <sz val="10"/>
         <color theme="1"/>
         <rFont val="Consolas"/>
         <charset val="134"/>
@@ -1986,7 +2277,7 @@
     </r>
     <r>
       <rPr>
-        <sz val="11"/>
+        <sz val="10"/>
         <color theme="1"/>
         <rFont val="宋体"/>
         <charset val="134"/>
@@ -1995,7 +2286,7 @@
     </r>
     <r>
       <rPr>
-        <sz val="11"/>
+        <sz val="10"/>
         <color theme="1"/>
         <rFont val="Consolas"/>
         <charset val="134"/>
@@ -2005,7 +2296,7 @@
     </r>
     <r>
       <rPr>
-        <sz val="11"/>
+        <sz val="10"/>
         <color theme="1"/>
         <rFont val="宋体"/>
         <charset val="134"/>
@@ -2014,7 +2305,7 @@
     </r>
     <r>
       <rPr>
-        <sz val="11"/>
+        <sz val="10"/>
         <color theme="1"/>
         <rFont val="Consolas"/>
         <charset val="134"/>
@@ -2023,7 +2314,7 @@
     </r>
     <r>
       <rPr>
-        <sz val="11"/>
+        <sz val="10"/>
         <color theme="1"/>
         <rFont val="宋体"/>
         <charset val="134"/>
@@ -2032,7 +2323,7 @@
     </r>
     <r>
       <rPr>
-        <sz val="11"/>
+        <sz val="10"/>
         <color theme="1"/>
         <rFont val="Consolas"/>
         <charset val="134"/>
@@ -2041,7 +2332,7 @@
     </r>
     <r>
       <rPr>
-        <sz val="11"/>
+        <sz val="10"/>
         <color theme="1"/>
         <rFont val="宋体"/>
         <charset val="134"/>
@@ -2050,7 +2341,7 @@
     </r>
     <r>
       <rPr>
-        <sz val="11"/>
+        <sz val="10"/>
         <color theme="1"/>
         <rFont val="Consolas"/>
         <charset val="134"/>
@@ -2059,7 +2350,7 @@
     </r>
     <r>
       <rPr>
-        <sz val="11"/>
+        <sz val="10"/>
         <color theme="1"/>
         <rFont val="宋体"/>
         <charset val="134"/>
@@ -2068,7 +2359,7 @@
     </r>
     <r>
       <rPr>
-        <sz val="11"/>
+        <sz val="10"/>
         <color theme="1"/>
         <rFont val="Consolas"/>
         <charset val="134"/>
@@ -2077,7 +2368,7 @@
     </r>
     <r>
       <rPr>
-        <sz val="11"/>
+        <sz val="10"/>
         <color theme="1"/>
         <rFont val="宋体"/>
         <charset val="134"/>
@@ -2086,7 +2377,7 @@
     </r>
     <r>
       <rPr>
-        <sz val="11"/>
+        <sz val="10"/>
         <color theme="1"/>
         <rFont val="Consolas"/>
         <charset val="134"/>
@@ -2095,7 +2386,7 @@
     </r>
     <r>
       <rPr>
-        <sz val="11"/>
+        <sz val="10"/>
         <color theme="1"/>
         <rFont val="宋体"/>
         <charset val="134"/>
@@ -2104,7 +2395,7 @@
     </r>
     <r>
       <rPr>
-        <sz val="11"/>
+        <sz val="10"/>
         <color theme="1"/>
         <rFont val="Consolas"/>
         <charset val="134"/>
@@ -2113,7 +2404,7 @@
     </r>
     <r>
       <rPr>
-        <sz val="11"/>
+        <sz val="10"/>
         <color theme="1"/>
         <rFont val="宋体"/>
         <charset val="134"/>
@@ -2122,7 +2413,7 @@
     </r>
     <r>
       <rPr>
-        <sz val="11"/>
+        <sz val="10"/>
         <color theme="1"/>
         <rFont val="Consolas"/>
         <charset val="134"/>
@@ -2132,6 +2423,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
       <t>Hibernate</t>
     </r>
     <r>
@@ -2352,6 +2649,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">    </t>
     </r>
     <r>
@@ -2551,6 +2854,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
       <t>Hibernate</t>
     </r>
     <r>
@@ -2842,6 +3151,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">    Spring</t>
     </r>
     <r>
@@ -3296,6 +3611,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
       <t>Bean</t>
     </r>
     <r>
@@ -5053,6 +5374,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">    AOP</t>
     </r>
     <r>
@@ -5393,6 +5720,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">    Spring</t>
     </r>
     <r>
@@ -5966,6 +6299,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
       <t>配置</t>
     </r>
     <r>
@@ -6204,6 +6544,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">    </t>
     </r>
     <r>
@@ -6213,7 +6559,25 @@
         <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
-      <t>拦截器通常以代理方式调用，在一个</t>
+      <t>拦截器位于</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>Struts2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>和</t>
     </r>
     <r>
       <rPr>
@@ -6231,16 +6595,52 @@
         <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
-      <t>执行前后进行拦截（位于</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Consolas"/>
-        <charset val="134"/>
-      </rPr>
-      <t>Struts2</t>
+      <t>之间</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>通常以代理方式调用，在一个</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>Action</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>执行前后进行拦截，围绕着</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>Action</t>
     </r>
     <r>
       <rPr>
@@ -6258,6 +6658,43 @@
         <rFont val="Consolas"/>
         <charset val="134"/>
       </rPr>
+      <t>Result</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>的执行而执行</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">.
+    </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>拦截器以链式执行，对真正要执行的方法</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
       <t>execute()</t>
     </r>
     <r>
@@ -6267,7 +6704,7 @@
         <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
-      <t>方法之间），围绕着</t>
+      <t>进行拦截，首先执行</t>
     </r>
     <r>
       <rPr>
@@ -6285,6 +6722,24 @@
         <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
+      <t>配置的拦截器，</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>Action</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>和</t>
     </r>
     <r>
@@ -6303,25 +6758,7 @@
         <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
-      <t>的执行而执行，对真正要执行的方法</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Consolas"/>
-        <charset val="134"/>
-      </rPr>
-      <t>execute()</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>进行拦截</t>
+      <t>执行之后，拦截器会再次执行</t>
     </r>
     <r>
       <rPr>
@@ -6333,9 +6770,137 @@
       <t xml:space="preserve">.
 </t>
     </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>对</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>Action</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>使用拦截器语法为：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> &lt;struts&gt;
+     &lt;package name="default" extends="struts-default"&gt;
+         &lt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>action</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> name="book_*" class="BookAction" method="{1}"&gt;
+             &lt;result&gt;/success.jsp&lt;/result&gt;
+             &lt;result name="login"&gt;/login.jsp&lt;/result&gt;
+           </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="8"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">  &lt;!-- Action</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="8"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>中使用拦截器</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="8"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> --&gt;
+             &lt;interceptor-ref name="myStack" /&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
+         &lt;/action&gt;
+     &lt;/package&gt;
+&lt;/struts&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
       <t>控制标签：实现分支、循环等操作，有：</t>
     </r>
     <r>
@@ -6354,6 +6919,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
       <t>这</t>
     </r>
     <r>
@@ -7112,6 +7683,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
       <t>一对多关联关系映射：</t>
     </r>
     <r>
@@ -8107,6 +8684,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
       <t>1</t>
     </r>
     <r>
@@ -8756,6 +9339,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
       <t>事务的并发问题：</t>
     </r>
     <r>
@@ -9198,6 +9787,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
       <t>Spring</t>
     </r>
     <r>
@@ -10334,6 +10929,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
       <t>AOP</t>
     </r>
     <r>
@@ -10814,6 +11415,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">execute(String sql):
     </t>
     </r>
@@ -11247,6 +11854,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0033CC"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>配置常量：</t>
     </r>
     <r>
@@ -11583,6 +12196,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>配置拦截器：</t>
     </r>
     <r>
@@ -11648,7 +12267,7 @@
         <rFont val="Consolas"/>
         <charset val="134"/>
       </rPr>
-      <t>&lt;interceptor&gt;&lt;/interceptor&gt;</t>
+      <t>&lt;interceptor&gt;</t>
     </r>
     <r>
       <rPr>
@@ -11771,12 +12390,21 @@
         <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
-      <t>将多个拦截器组织成一个拦截器栈，可以将栈内的多个拦截器当成一个整体引用，定义拦截器栈使用</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
+      <t>将多个拦截器组织成一个拦截器栈，可以将栈内的多个拦截器当成一个整体引用，</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0033CC"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>定义拦截器栈使用</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0033CC"/>
         <rFont val="Consolas"/>
         <charset val="134"/>
       </rPr>
@@ -11785,7 +12413,7 @@
     <r>
       <rPr>
         <sz val="11"/>
-        <color theme="1"/>
+        <color rgb="FF0033CC"/>
         <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
@@ -11794,7 +12422,7 @@
     <r>
       <rPr>
         <sz val="11"/>
-        <color theme="1"/>
+        <color rgb="FF0033CC"/>
         <rFont val="Consolas"/>
         <charset val="134"/>
       </rPr>
@@ -11830,7 +12458,7 @@
     <r>
       <rPr>
         <sz val="11"/>
-        <color theme="1"/>
+        <color rgb="FF0033CC"/>
         <rFont val="Consolas"/>
         <charset val="134"/>
       </rPr>
@@ -11872,7 +12500,35 @@
         <rFont val="Consolas"/>
         <charset val="134"/>
       </rPr>
-      <t>"&gt;
+      <t xml:space="preserve">"&gt;
+            </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">&lt;interceptor-ref name="defaultStack"/&gt; </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>引用内置拦截器栈</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
             &lt;interceptor-ref name="</t>
     </r>
     <r>
@@ -11908,15 +12564,30 @@
     <r>
       <rPr>
         <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Consolas"/>
-        <charset val="134"/>
-      </rPr>
-      <t>defaultStack.</t>
+        <color rgb="FFFF0000"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>defaultStack</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>.</t>
     </r>
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
       <t>数据标签：显示数据、包含文件、传递参数等，有：</t>
     </r>
     <r>
@@ -12082,7 +12753,25 @@
         <rFont val="Consolas"/>
         <charset val="134"/>
       </rPr>
-      <t xml:space="preserve">Configuration config = new Configuration().configure();
+      <t>Configuration config = new Configuration().configure("</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF0033CC"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>配置文件路径</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF0033CC"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">");
 </t>
     </r>
     <r>
@@ -12463,6 +13152,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
       <t>Hibernate</t>
     </r>
     <r>
@@ -12971,6 +13666,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
       <t>多对多关联关系映射：</t>
     </r>
     <r>
@@ -13519,6 +14220,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
       <t>HQL</t>
     </r>
     <r>
@@ -13961,6 +14668,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
       <t>事务的隔离级别：</t>
     </r>
     <r>
@@ -14291,6 +15004,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
       <t>Spring</t>
     </r>
     <r>
@@ -14695,6 +15414,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
       <t>Bean</t>
     </r>
     <r>
@@ -15452,6 +16177,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="8"/>
+        <color rgb="FF0033CC"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
       <t>以下两个代理（</t>
     </r>
     <r>
@@ -15926,6 +16658,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0033CC"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
       <t>配置包：</t>
     </r>
     <r>
@@ -16232,6 +16970,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">    </t>
     </r>
     <r>
@@ -16277,7 +17021,7 @@
         <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
-      <t>都进行配置。此时可以对该包的</t>
+      <t>都进行配置，过于繁琐。此时可以对该包的</t>
     </r>
     <r>
       <rPr>
@@ -16295,12 +17039,21 @@
         <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
-      <t>指定默认拦截器，默认拦截器可以对该包中的所有</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
+      <t>指定默认拦截器，</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>默认拦截器可以对包中的所有</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
         <rFont val="Consolas"/>
         <charset val="134"/>
       </rPr>
@@ -16309,11 +17062,20 @@
     <r>
       <rPr>
         <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>进行拦截。一旦为某个包指定默认拦截器，且该包中的</t>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>进行拦截。</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>一旦为某个包指定默认拦截器，且该包中的</t>
     </r>
     <r>
       <rPr>
@@ -16395,16 +17157,16 @@
         <rFont val="Consolas"/>
         <charset val="134"/>
       </rPr>
-      <t>&lt;default-interceptor-of&gt;</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>，其为</t>
+      <t>&lt;default-interceptor-ref&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>标签，其为</t>
     </r>
     <r>
       <rPr>
@@ -16432,9 +17194,109 @@
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">
-    &lt;package name="default" namespace="/" extends="struts-default"&gt;
+ </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> &lt;package name="default" namespace="/" extends="struts-default"&gt;
         ... ...
-        &lt;default-interceptor-ref name="myStack" /&gt;
+        </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF0033CC"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>//</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF0033CC"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>为该包</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF0033CC"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>default</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF0033CC"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>声明默认拦截器</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF0033CC"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">myStack, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF0033CC"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>该拦截器将作用于包下的所有</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF0033CC"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>Action</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
+        &lt;default-interceptor-ref name="myStack" /&gt;  
     &lt;/package&gt;</t>
     </r>
   </si>
@@ -16487,7 +17349,7 @@
       </rPr>
       <t xml:space="preserve">
     &lt;s:form&gt;
-    &lt;s:bubmit&gt;
+    &lt;s:submit&gt;
     &lt;s:textfield&gt;
     &lt;s:textarea&gt;
     &lt;s:password&gt;
@@ -16701,6 +17563,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
       <t>关联关系中的反转：</t>
     </r>
     <r>
@@ -17286,6 +18154,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
       <t>HQL</t>
     </r>
     <r>
@@ -17385,6 +18259,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
       <t>Hibernate</t>
     </r>
     <r>
@@ -17685,6 +18565,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
       <t>Ioc</t>
     </r>
     <r>
@@ -18542,6 +19428,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">update():
     </t>
     </r>
@@ -19114,6 +20006,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0033CC"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
       <t>包含文件：</t>
     </r>
     <r>
@@ -19349,473 +20247,197 @@
   </si>
   <si>
     <r>
-      <t>自定义拦截器：</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Consolas"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>内建拦截器：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
+    Struts2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>中内置了许多拦截器，这些拦截器以</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>name-class</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>对的形式配置在</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>strtus-default.xml</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>中，</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>name</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>是拦截器名称，也就是引用的名字；</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>class</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>指定了拦截器对应的实现，只要自定义的包继承了</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>Struts2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>的</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>struts-default</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>包，就可以使用默认包中定义的内建拦截器</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">.
+ </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> &lt;package name="default" namespace="/" extends="</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
         <color rgb="FFFF0000"/>
         <rFont val="Consolas"/>
         <charset val="134"/>
       </rPr>
-      <t xml:space="preserve">
-1</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>、实现</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Consolas"/>
-        <charset val="134"/>
-      </rPr>
-      <t>Interceptor</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>接口，并实现其中的</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Consolas"/>
-        <charset val="134"/>
-      </rPr>
-      <t>3</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>个方法</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Consolas"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">
-    </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>自定义拦截器实现类需要实现</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Consolas"/>
-        <charset val="134"/>
-      </rPr>
-      <t>Interceptor</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>接口并实现接口中的</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Consolas"/>
-        <charset val="134"/>
-      </rPr>
-      <t>3</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>个方法：</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Consolas"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">
-    void init() : </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>在拦截器被创建后立即调用，只被调用一次</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Consolas"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">
-    void destroy() : </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>在拦截器被销毁之前调用，只被调用一次</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Consolas"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">
-    String intercept(ActionInvocation invocation) : </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>拦截器核心方法，执行真正的拦截操作，返回一个字符串作为逻辑视图，系统根据返回的字符串跳转到对应的视图资源。每拦截一个动作请求，该方法就被调用一次，参数</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Consolas"/>
-        <charset val="134"/>
-      </rPr>
-      <t>ActionInvocation</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>包含了被拦截</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Consolas"/>
-        <charset val="134"/>
-      </rPr>
-      <t>Action</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>的引用，通过该参数的</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Consolas"/>
-        <charset val="134"/>
-      </rPr>
-      <t>invoke()</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>方法，将控制权转交给下一个拦截器或</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Consolas"/>
-        <charset val="134"/>
-      </rPr>
-      <t>Action</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>的</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Consolas"/>
-        <charset val="134"/>
-      </rPr>
-      <t>execute()</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>方法</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Consolas"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">. 
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Consolas"/>
-        <charset val="134"/>
-      </rPr>
-      <t>2</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>、继承</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Consolas"/>
-        <charset val="134"/>
-      </rPr>
-      <t>AbstractInterceptor</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>抽象类，实现</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Consolas"/>
-        <charset val="134"/>
-      </rPr>
-      <t>intercept()</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>方法</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Consolas"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">
-    </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>实际开发中，除了实现</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Consolas"/>
-        <charset val="134"/>
-      </rPr>
-      <t>Interceptor</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>接口可以自定义拦截器外，更多的是继承抽象拦截器类</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Consolas"/>
-        <charset val="134"/>
-      </rPr>
-      <t>AbstractInterceptor</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>，该类实现了</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Consolas"/>
-        <charset val="134"/>
-      </rPr>
-      <t>Interceptor</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>接口，并提供了</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Consolas"/>
-        <charset val="134"/>
-      </rPr>
-      <t>init()</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>和</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Consolas"/>
-        <charset val="134"/>
-      </rPr>
-      <t>destroy()</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>方法的空实现。</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Consolas"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
+      <t>struts-default</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>"&gt;
+     &lt;/package&gt;</t>
     </r>
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
       <t>非表单标签：输出在</t>
     </r>
     <r>
@@ -20044,7 +20666,25 @@
         <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
-      <t>、属性应尽量使用基本数据类型的包装类型，用来和数据库表的字段默认值</t>
+      <t>、属性应尽量使用基本数据类型的</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0033CC"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>包装类型</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>，用来和数据库表的字段默认值</t>
     </r>
     <r>
       <rPr>
@@ -20122,6 +20762,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
       <t>级联操作：</t>
     </r>
     <r>
@@ -20377,6 +21023,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
       <t>HQL</t>
     </r>
     <r>
@@ -20825,6 +21477,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">hibernate.current_session_context_class:
     </t>
     </r>
@@ -21013,6 +21671,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
       <t>Action</t>
     </r>
     <r>
@@ -21156,6 +21821,467 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>自定义拦截器：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
+1</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>、实现</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>Interceptor</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>接口，并实现其中的</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>3</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>个方法</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
+    </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>自定义拦截器实现类需要实现</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>Interceptor</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>接口并实现接口中的</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>个方法：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
+    void init() : </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>在拦截器被创建后立即调用，只被调用一次</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
+    void destroy() : </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>在拦截器被销毁之前调用，只被调用一次</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
+    String intercept(ActionInvocation invocation) : </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>拦截器核心方法，执行真正的拦截操作，返回一个字符串作为逻辑视图，系统根据返回的字符串跳转到对应的视图资源。</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0033CC"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>每拦截一个动作请求，该方法就被调用一次</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>，参数</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>ActionInvocation</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>包含了被拦截</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>Action</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>的引用. 通过该参数的</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>invoke()</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>方法，可以将控制权转交给下一个拦截器或</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">Action.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>、继承</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>AbstractInterceptor</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>抽象类，实现</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>intercept()</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>方法</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
+    </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>实际开发中，除了实现</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>Interceptor</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>接口可以自定义拦截器外，更多的是继承抽象拦截器类</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>AbstractInterceptor</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>，该类实现了</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>Interceptor</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>接口，并提供了</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>init()</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>和</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>destroy()</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>方法的空实现。</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
       <t>一级缓存常用操作：刷出、清除、刷新</t>
     </r>
     <r>
@@ -21457,6 +22583,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
       <t>一对多级联保存：</t>
     </r>
     <r>
@@ -21695,6 +22827,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
       <t>HQL</t>
     </r>
     <r>
@@ -21873,6 +23011,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
       <t>悲观锁：</t>
     </r>
     <r>
@@ -22135,6 +23279,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
       <t>验证</t>
     </r>
     <r>
@@ -22849,6 +23999,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
       <t>Bean</t>
     </r>
     <r>
@@ -23846,6 +25002,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="8"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
       <t>CGLIB</t>
     </r>
     <r>
@@ -24439,6 +25602,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0033CC"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
       <t>1</t>
     </r>
     <r>
@@ -24712,6 +25881,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
       <t>一对多级联删除：</t>
     </r>
     <r>
@@ -25095,6 +26270,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
       <t>HQL</t>
     </r>
     <r>
@@ -25601,6 +26782,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
       <t>验证悲观锁：</t>
     </r>
     <r>
@@ -26095,6 +27282,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="8"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
       <t>query():</t>
     </r>
     <r>
@@ -26718,6 +27912,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0033CC"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
       <t>2</t>
     </r>
     <r>
@@ -26976,6 +28176,239 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>Struts</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>拦截器和</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>Servlet</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>过滤器区别：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>作用相同，定义位置不同：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
+    Servlet</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>过滤器定义在</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>web.xml</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>文件中</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
+    Struts</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>拦截器定义在</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>/src</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>目录下的</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>struts.xml</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>文件中</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>过滤器使用的是</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>&lt;filter&gt;&lt;filter-class&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>等标签</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>拦截器使用的是</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>&lt;interceptors&gt;&lt;interceptor-ref&gt;&lt;interceptor-stack&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>等标签</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">.
+</t>
+    </r>
+  </si>
+  <si>
+    <r>
       <t>配置文件有</t>
     </r>
     <r>
@@ -27031,16 +28464,43 @@
         <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
-      <t>属性文件格式的配置文件，用键值对的形式存放信息，默认名称为</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Consolas"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve"> hibernate.properties
+      <t>属性文件格式的配置文件，用</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0033CC"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>键值对</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>的形式存放信息，默认名称为</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0033CC"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>hibernate.properties</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
     2</t>
     </r>
     <r>
@@ -27114,25 +28574,8 @@
         <rFont val="Consolas"/>
         <charset val="134"/>
       </rPr>
-      <t>hibernate.properties</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>。</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Consolas"/>
-        <charset val="134"/>
-      </rPr>
-      <t>xml</t>
+      <t>hibernate.properties.
+    xml</t>
     </r>
     <r>
       <rPr>
@@ -27173,6 +28616,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
       <t>孤儿删除</t>
     </r>
     <r>
@@ -27431,6 +28880,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
       <t>HQL</t>
     </r>
     <r>
@@ -27651,6 +29106,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
       <t>Bean</t>
     </r>
     <r>
@@ -28020,6 +29481,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0033CC"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
       <t>3</t>
     </r>
     <r>
@@ -28361,6 +29828,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
       <t>多对多的级联保存：</t>
     </r>
     <r>
@@ -28456,6 +29929,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
       <t>QBC</t>
     </r>
     <r>
@@ -28673,6 +30152,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
       <t>乐观锁：</t>
     </r>
     <r>
@@ -28779,6 +30264,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
       <t>依赖注入：</t>
     </r>
     <r>
@@ -29323,6 +30814,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
       <t>Bean</t>
     </r>
     <r>
@@ -32977,6 +34474,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
       <t>Spring</t>
     </r>
     <r>
@@ -33305,16 +34808,36 @@
         <rFont val="Consolas"/>
         <charset val="134"/>
       </rPr>
-      <t>.configure()</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>中的参数即为配置文件的路径，如想使用指定目录下的配置文件，则应为</t>
+      <t xml:space="preserve">. </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="8"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>configure()</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="8"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>方法中的参数即为配置文件的路径</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>，如想使用指定目录下的配置文件，则应为</t>
     </r>
     <r>
       <rPr>
@@ -33456,6 +34979,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
       <t>多对多的级联删除：</t>
     </r>
     <r>
@@ -33628,6 +35157,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
       <t>QBC</t>
     </r>
     <r>
@@ -33858,6 +35393,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
       <t>验证乐观锁：</t>
     </r>
     <r>
@@ -34560,6 +36101,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
       <t>验证依赖注入：</t>
     </r>
     <r>
@@ -35156,6 +36703,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
       <t>Spring AOP:
    Spring</t>
     </r>
@@ -35960,6 +37513,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>配置</t>
     </r>
     <r>
@@ -36586,7 +38146,7 @@
         <rFont val="Consolas"/>
         <charset val="134"/>
       </rPr>
-      <t>clise()</t>
+      <t>close()</t>
     </r>
     <r>
       <rPr>
@@ -36624,7 +38184,7 @@
         <rFont val="Consolas"/>
         <charset val="134"/>
       </rPr>
-      <t>getCurrentSession</t>
+      <t>getCurrentSession()</t>
     </r>
     <r>
       <rPr>
@@ -36770,6 +38330,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
       <t>HQL</t>
     </r>
     <r>
@@ -36945,6 +38511,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
       <t>配置</t>
     </r>
     <r>
@@ -37300,6 +38872,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
       <t>Hibernate</t>
     </r>
     <r>
@@ -37708,6 +39286,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
       <t>Action</t>
     </r>
     <r>
@@ -38021,6 +39605,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
       <t>在</t>
     </r>
     <r>
@@ -38212,6 +39802,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
       <t>1</t>
     </r>
     <r>
@@ -38694,7 +40290,7 @@
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">
-    Criteriion =&gt; </t>
+    Criterion  =&gt; </t>
     </r>
     <r>
       <rPr>
@@ -39308,6 +40904,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
       <t>二级缓存并发访问策略：</t>
     </r>
     <r>
@@ -39588,6 +41190,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
       <t>AspectJ:
     AspectJ</t>
     </r>
@@ -39794,6 +41402,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
       <t>2</t>
     </r>
     <r>
@@ -40273,6 +41887,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
       <t>二级缓存插件：</t>
     </r>
     <r>
@@ -40401,6 +42021,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
       <t>3</t>
     </r>
     <r>
@@ -40519,6 +42145,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
       <t>验证二级缓存：</t>
     </r>
     <r>
@@ -41560,6 +43192,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
       <t>Action</t>
     </r>
     <r>
@@ -42377,6 +44015,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
       <t>Result</t>
     </r>
     <r>
@@ -42812,6 +44456,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
       <t>预定义结果类型：</t>
     </r>
     <r>
@@ -42985,12 +44635,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="62">
+  <fonts count="66">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -43002,6 +44652,18 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="Consolas"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="宋体"/>
       <charset val="134"/>
     </font>
     <font>
@@ -43030,6 +44692,12 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
       <sz val="10"/>
       <color theme="1"/>
       <name val="Consolas"/>
@@ -43039,6 +44707,12 @@
       <sz val="11"/>
       <color rgb="FF0033CC"/>
       <name val="Consolas"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color theme="1"/>
+      <name val="宋体"/>
       <charset val="134"/>
     </font>
     <font>
@@ -43063,14 +44737,91 @@
       <charset val="134"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -43086,23 +44837,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <u/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -43129,71 +44866,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -43207,24 +44881,56 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <b/>
+      <sz val="9"/>
+      <color rgb="FFFF0000"/>
+      <name val="Consolas"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
+      <sz val="9"/>
+      <color rgb="FF0033CC"/>
       <name val="Consolas"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="9"/>
-      <color theme="1"/>
+      <color rgb="FF0033CC"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="Consolas"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color rgb="FF0033CC"/>
+      <name val="Consolas"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color rgb="FF0033CC"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
@@ -43236,32 +44942,21 @@
     </font>
     <font>
       <sz val="8"/>
-      <color theme="1"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="8"/>
       <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="8"/>
-      <color rgb="FF0033CC"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="8"/>
-      <color rgb="FF0033CC"/>
       <name val="Consolas"/>
       <charset val="134"/>
     </font>
     <font>
+      <b/>
       <sz val="8"/>
       <color rgb="FFFF0000"/>
-      <name val="Consolas"/>
+      <name val="宋体"/>
       <charset val="134"/>
     </font>
     <font>
@@ -43272,13 +44967,6 @@
     <font>
       <sz val="8"/>
       <name val="Consolas"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="8"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
       <charset val="134"/>
     </font>
     <font>
@@ -43302,19 +44990,7 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
       <name val="Consolas"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color theme="1"/>
-      <name val="宋体"/>
       <charset val="134"/>
     </font>
     <font>
@@ -43408,7 +45084,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -43420,7 +45096,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -43433,6 +45127,54 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -43474,18 +45216,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -43504,60 +45234,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -43570,19 +45246,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -43599,45 +45275,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -43666,6 +45303,21 @@
     </border>
     <border>
       <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
@@ -43682,20 +45334,44 @@
     <border>
       <left/>
       <right/>
-      <top/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FF7F7F7F"/>
       </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -43707,10 +45383,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="12" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="23" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -43719,137 +45395,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="26" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="22" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="22" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="25" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="14" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="33" fillId="14" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -43859,16 +45535,10 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -43880,14 +45550,8 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -43895,7 +45559,25 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -43968,16 +45650,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>6350</xdr:rowOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>5868670</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>13970</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>2691765</xdr:rowOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>5139055</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>2699385</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -43994,8 +45676,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6543675" y="16452850"/>
-          <a:ext cx="5724525" cy="2685415"/>
+          <a:off x="5868670" y="20029170"/>
+          <a:ext cx="5151120" cy="2685415"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -44032,7 +45714,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9525" y="26814780"/>
+          <a:off x="9525" y="27678380"/>
           <a:ext cx="5612765" cy="1990090"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -44070,7 +45752,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="18470245" y="3333750"/>
+          <a:off x="16699230" y="3333750"/>
           <a:ext cx="4337685" cy="2493010"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -44108,8 +45790,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="18471515" y="16454755"/>
-          <a:ext cx="4897120" cy="2406015"/>
+          <a:off x="16700500" y="16823055"/>
+          <a:ext cx="4406265" cy="2406015"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -44146,8 +45828,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="18476595" y="24436705"/>
-          <a:ext cx="4892040" cy="2332990"/>
+          <a:off x="16705580" y="25300305"/>
+          <a:ext cx="4401185" cy="2332990"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -44161,13 +45843,13 @@
       <xdr:col>5</xdr:col>
       <xdr:colOff>9525</xdr:colOff>
       <xdr:row>7</xdr:row>
-      <xdr:rowOff>32385</xdr:rowOff>
+      <xdr:rowOff>44450</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>7</xdr:row>
-      <xdr:rowOff>2559050</xdr:rowOff>
+      <xdr:rowOff>2571115</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -44184,8 +45866,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="18469610" y="19183985"/>
-          <a:ext cx="4899025" cy="2526665"/>
+          <a:off x="16698595" y="20059650"/>
+          <a:ext cx="4408170" cy="2526665"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -44222,7 +45904,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="18479135" y="39243000"/>
+          <a:off x="16708120" y="40106600"/>
           <a:ext cx="4398645" cy="2057400"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -44247,7 +45929,7 @@
       <xdr:col>7</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>5</xdr:row>
-      <xdr:rowOff>2327910</xdr:rowOff>
+      <xdr:rowOff>1959610</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -44264,8 +45946,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="23392765" y="11572875"/>
-          <a:ext cx="4650105" cy="4750435"/>
+          <a:off x="21130895" y="11572875"/>
+          <a:ext cx="4182745" cy="4750435"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -44302,8 +45984,84 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="28110180" y="1963420"/>
+          <a:off x="25380950" y="1963420"/>
           <a:ext cx="2097405" cy="853440"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>5880100</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>10795</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>5146675</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>997585</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="图片 4" descr="servlet_filter"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId10"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5880100" y="25283795"/>
+          <a:ext cx="5147310" cy="3361690"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>14605</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>1146810</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>5152390</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>2519680</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="12" name="图片 11" descr="struts_interceptor"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId11"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5895340" y="28794710"/>
+          <a:ext cx="5137785" cy="3404870"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -44604,23 +46362,23 @@
   <sheetPr/>
   <dimension ref="A1:N20"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" topLeftCell="M1" workbookViewId="0">
+      <selection activeCell="O1" sqref="O1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="85.75" style="1" customWidth="1"/>
     <col min="2" max="2" width="75.25" style="1" customWidth="1"/>
-    <col min="3" max="3" width="63.2583333333333" style="1" customWidth="1"/>
+    <col min="3" max="3" width="64.3518518518518" style="1" customWidth="1"/>
     <col min="4" max="5" width="9" style="1"/>
     <col min="6" max="6" width="64.4166666666667" style="1" customWidth="1"/>
-    <col min="7" max="7" width="61.3416666666667" style="1" customWidth="1"/>
-    <col min="8" max="8" width="63.2666666666667" style="1" customWidth="1"/>
-    <col min="9" max="9" width="63.075" style="1" customWidth="1"/>
-    <col min="10" max="10" width="54.1333333333333" style="1" customWidth="1"/>
-    <col min="11" max="11" width="54.3166666666667" style="1" customWidth="1"/>
-    <col min="12" max="14" width="54.225" style="1" customWidth="1"/>
+    <col min="7" max="7" width="61.3425925925926" style="1" customWidth="1"/>
+    <col min="8" max="8" width="63.2685185185185" style="1" customWidth="1"/>
+    <col min="9" max="9" width="63.0740740740741" style="1" customWidth="1"/>
+    <col min="10" max="10" width="54.1296296296296" style="1" customWidth="1"/>
+    <col min="11" max="11" width="54.3148148148148" style="1" customWidth="1"/>
+    <col min="12" max="14" width="54.2222222222222" style="1" customWidth="1"/>
     <col min="15" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
@@ -44628,37 +46386,37 @@
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="G1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="H1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="I1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="J1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="K1" s="3" t="s">
+      <c r="K1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="L1" s="3" t="s">
+      <c r="L1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="M1" s="3" t="s">
+      <c r="M1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="N1" s="3" t="s">
+      <c r="N1" s="1" t="s">
         <v>11</v>
       </c>
     </row>
@@ -44669,19 +46427,19 @@
       <c r="B2" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="3" t="s">
         <v>14</v>
       </c>
       <c r="F2" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="G2" s="2" t="s">
+      <c r="G2" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="H2" s="4" t="s">
+      <c r="H2" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="I2" s="4" t="s">
+      <c r="I2" s="5" t="s">
         <v>18</v>
       </c>
       <c r="J2" s="7" t="s">
@@ -44701,7 +46459,7 @@
       </c>
     </row>
     <row r="3" ht="300" customHeight="1" spans="1:14">
-      <c r="A3" s="5" t="s">
+      <c r="A3" s="6" t="s">
         <v>24</v>
       </c>
       <c r="B3" s="2" t="s">
@@ -44710,7 +46468,7 @@
       <c r="C3" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="F3" s="6"/>
+      <c r="F3" s="2"/>
       <c r="G3" s="7" t="s">
         <v>27</v>
       </c>
@@ -44738,7 +46496,7 @@
       <c r="A4" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B4" s="9" t="s">
         <v>35</v>
       </c>
       <c r="C4" s="2" t="s">
@@ -44747,10 +46505,10 @@
       <c r="F4" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="G4" s="9" t="s">
+      <c r="G4" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="H4" s="10" t="s">
+      <c r="H4" s="11" t="s">
         <v>39</v>
       </c>
       <c r="I4" s="7" t="s">
@@ -44765,25 +46523,25 @@
       <c r="L4" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="M4" s="14" t="s">
+      <c r="M4" s="16" t="s">
         <v>44</v>
       </c>
       <c r="N4" s="7"/>
     </row>
-    <row r="5" ht="192" customHeight="1" spans="1:14">
-      <c r="A5" s="11" t="s">
+    <row r="5" ht="221" customHeight="1" spans="1:14">
+      <c r="A5" s="12" t="s">
         <v>45</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="C5" s="9" t="s">
         <v>47</v>
       </c>
       <c r="F5" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="G5" s="12"/>
+      <c r="G5" s="13"/>
       <c r="H5" s="7" t="s">
         <v>49</v>
       </c>
@@ -44797,26 +46555,26 @@
         <v>52</v>
       </c>
       <c r="L5" s="7"/>
-      <c r="M5" s="6"/>
+      <c r="M5" s="2"/>
       <c r="N5" s="7" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="6" ht="193" customHeight="1" spans="1:14">
-      <c r="A6" s="11" t="s">
+      <c r="A6" s="12" t="s">
         <v>54</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="B6" s="9" t="s">
         <v>55</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="F6" s="2" t="s">
+      <c r="F6" s="9" t="s">
         <v>57</v>
       </c>
-      <c r="G6" s="12"/>
-      <c r="H6" s="4" t="s">
+      <c r="G6" s="13"/>
+      <c r="H6" s="5" t="s">
         <v>58</v>
       </c>
       <c r="I6" s="7" t="s">
@@ -44827,149 +46585,159 @@
       </c>
       <c r="K6" s="7"/>
       <c r="L6" s="7"/>
-      <c r="M6" s="6"/>
+      <c r="M6" s="2"/>
       <c r="N6" s="7"/>
     </row>
-    <row r="7" ht="213" customHeight="1" spans="1:14">
-      <c r="A7" s="5" t="s">
+    <row r="7" ht="252" customHeight="1" spans="1:14">
+      <c r="A7" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="F7" s="6"/>
-      <c r="G7" s="7" t="s">
+      <c r="B7" s="9" t="s">
         <v>62</v>
       </c>
-      <c r="H7" s="7" t="s">
+      <c r="F7" s="2"/>
+      <c r="G7" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="I7" s="7" t="s">
+      <c r="H7" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="J7" s="4" t="s">
+      <c r="I7" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="K7" s="7" t="s">
+      <c r="J7" s="5" t="s">
         <v>66</v>
       </c>
-      <c r="L7" s="7" t="s">
+      <c r="K7" s="7" t="s">
         <v>67</v>
       </c>
-      <c r="M7" s="15" t="s">
+      <c r="L7" s="7" t="s">
         <v>68</v>
+      </c>
+      <c r="M7" s="17" t="s">
+        <v>69</v>
       </c>
       <c r="N7" s="7"/>
     </row>
     <row r="8" ht="214" customHeight="1" spans="1:14">
-      <c r="A8" s="11" t="s">
-        <v>69</v>
+      <c r="A8" s="12" t="s">
+        <v>70</v>
       </c>
       <c r="H8" s="7" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="I8" s="7" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="K8" s="7"/>
       <c r="L8" s="7"/>
-      <c r="M8" s="6"/>
-      <c r="N8" s="15" t="s">
-        <v>73</v>
+      <c r="M8" s="2"/>
+      <c r="N8" s="17" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="9" ht="200" customHeight="1" spans="1:14">
-      <c r="A9" s="11" t="s">
-        <v>74</v>
-      </c>
-      <c r="F9" s="2" t="s">
+      <c r="A9" s="12" t="s">
         <v>75</v>
       </c>
-      <c r="H9" s="7" t="s">
+      <c r="B9" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="I9" s="7" t="s">
+      <c r="F9" s="9" t="s">
         <v>77</v>
       </c>
-      <c r="J9" s="6"/>
+      <c r="H9" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="I9" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="J9" s="2"/>
       <c r="K9" s="7"/>
       <c r="L9" s="7" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
-      <c r="M9" s="6"/>
+      <c r="M9" s="2"/>
       <c r="N9" s="7"/>
     </row>
     <row r="10" ht="187" customHeight="1" spans="1:14">
-      <c r="A10" s="11" t="s">
-        <v>79</v>
+      <c r="A10" s="12" t="s">
+        <v>81</v>
       </c>
-      <c r="H10" s="4" t="s">
-        <v>80</v>
+      <c r="B10" s="2"/>
+      <c r="H10" s="5" t="s">
+        <v>82</v>
       </c>
       <c r="I10" s="7" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
-      <c r="J10" s="4" t="s">
-        <v>82</v>
+      <c r="J10" s="5" t="s">
+        <v>84</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="M10" s="7" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="N10" s="7"/>
     </row>
     <row r="11" ht="160" customHeight="1" spans="1:14">
-      <c r="A11" s="11"/>
-      <c r="F11" s="7" t="s">
-        <v>86</v>
+      <c r="A11" s="12"/>
+      <c r="B11" s="2"/>
+      <c r="F11" s="14" t="s">
+        <v>88</v>
       </c>
       <c r="H11" s="7" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="I11" s="7" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="L11" s="7"/>
       <c r="M11" s="7" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="N11" s="7"/>
     </row>
     <row r="12" ht="214" customHeight="1" spans="1:13">
-      <c r="A12" s="13" t="s">
-        <v>92</v>
+      <c r="A12" s="15" t="s">
+        <v>94</v>
       </c>
+      <c r="B12" s="2"/>
       <c r="F12" s="7" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="I12" s="7" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
-      <c r="J12" s="6"/>
+      <c r="J12" s="2"/>
       <c r="K12" s="7"/>
       <c r="L12" s="7"/>
       <c r="M12" s="7"/>
     </row>
     <row r="13" ht="220" customHeight="1" spans="1:13">
       <c r="A13" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
+      <c r="B13" s="2"/>
       <c r="F13" s="7" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="K13" s="7"/>
       <c r="L13" s="7"/>
@@ -44977,67 +46745,67 @@
     </row>
     <row r="14" ht="182" customHeight="1" spans="1:13">
       <c r="A14" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
-      <c r="F14" s="4" t="s">
-        <v>99</v>
+      <c r="F14" s="5" t="s">
+        <v>101</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="L14" s="7"/>
       <c r="M14" s="7"/>
     </row>
     <row r="15" ht="202" customHeight="1" spans="1:13">
       <c r="A15" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="L15" s="7"/>
       <c r="M15" s="7" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
     </row>
     <row r="16" ht="174" customHeight="1" spans="1:12">
       <c r="A16" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="L16" s="7"/>
     </row>
     <row r="17" ht="129" customHeight="1" spans="1:12">
       <c r="A17" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="L17" s="7"/>
     </row>
     <row r="18" ht="360" customHeight="1" spans="1:12">
       <c r="A18" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="J18" s="7"/>
       <c r="L18" s="7"/>
     </row>
     <row r="19" ht="408" customHeight="1" spans="1:12">
       <c r="A19" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="J19" s="7"/>
       <c r="L19" s="7"/>
     </row>
     <row r="20" ht="249" customHeight="1" spans="1:1">
       <c r="A20" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
     </row>
   </sheetData>
@@ -45076,7 +46844,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <sheetData/>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -45093,7 +46861,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <sheetData/>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
